--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -587,13 +587,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>419</v>
       </c>
       <c r="E12">
-        <v>0.1479713603818616</v>
+        <v>0.1503579952267303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -655,13 +655,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>193</v>
       </c>
       <c r="E16">
-        <v>0.2642487046632124</v>
+        <v>0.2746113989637305</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -740,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>206</v>
       </c>
       <c r="E21">
-        <v>0.441747572815534</v>
+        <v>0.4660194174757282</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>cohort_year</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>retention_rate</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -386,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,359 +425,257 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2020</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2020</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="E3">
-        <v>0.6074766355140186</v>
+        <v>0.350104821802935</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2020</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="E4">
-        <v>0.2523364485981308</v>
+        <v>0.259958071278826</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2020</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="E5">
-        <v>0.1682242990654206</v>
+        <v>0.2159329140461216</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2020</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="E6">
-        <v>0.1495327102803738</v>
+        <v>0.1572327044025157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
-        <v>2020</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="D7">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="E7">
-        <v>0.1121495327102804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2021</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>73</v>
+      </c>
+      <c r="D8">
+        <v>195</v>
+      </c>
+      <c r="E8">
+        <v>0.3743589743589744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>195</v>
+      </c>
+      <c r="E9">
+        <v>0.3230769230769231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>195</v>
+      </c>
+      <c r="E10">
+        <v>0.2769230769230769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>419</v>
-      </c>
-      <c r="D8">
-        <v>419</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2021</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>142</v>
-      </c>
-      <c r="D9">
-        <v>419</v>
-      </c>
-      <c r="E9">
-        <v>0.3389021479713604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2021</v>
-      </c>
-      <c r="B10">
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>123</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>0.6910569105691057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>106</v>
-      </c>
-      <c r="D10">
-        <v>419</v>
-      </c>
-      <c r="E10">
-        <v>0.2529832935560859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2021</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>87</v>
-      </c>
-      <c r="D11">
-        <v>419</v>
-      </c>
-      <c r="E11">
-        <v>0.20763723150358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2021</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>63</v>
-      </c>
-      <c r="D12">
-        <v>419</v>
-      </c>
-      <c r="E12">
-        <v>0.1503579952267303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>0.4390243902439024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>193</v>
-      </c>
-      <c r="D13">
-        <v>193</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="D14">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E14">
-        <v>0.3782383419689119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2022</v>
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E15">
-        <v>0.3264248704663212</v>
+        <v>0.4611650485436893</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2022</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>0.2746113989637305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2023</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>123</v>
-      </c>
-      <c r="D17">
-        <v>123</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>2023</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>85</v>
-      </c>
-      <c r="D18">
-        <v>123</v>
-      </c>
-      <c r="E18">
-        <v>0.6910569105691057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <v>123</v>
-      </c>
-      <c r="E19">
-        <v>0.4390243902439024</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>2024</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>206</v>
-      </c>
-      <c r="D20">
-        <v>206</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>2024</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>96</v>
-      </c>
-      <c r="D21">
-        <v>206</v>
-      </c>
-      <c r="E21">
-        <v>0.4660194174757282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>2025</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
         <v>1</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>cohort_year</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>retention_rate</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>2021</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="D2">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -449,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.350104821802935</v>
+        <v>0.6055045871559633</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>0.259958071278826</v>
+        <v>0.2477064220183486</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,13 +486,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>0.2159329140461216</v>
+        <v>0.1651376146788991</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,30 +503,30 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>0.1572327044025157</v>
+        <v>0.1467889908256881</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.1284403669724771</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +534,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>419</v>
       </c>
       <c r="D8">
-        <v>195</v>
+        <v>419</v>
       </c>
       <c r="E8">
-        <v>0.3743589743589744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,16 +551,16 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D9">
-        <v>195</v>
+        <v>419</v>
       </c>
       <c r="E9">
-        <v>0.3230769230769231</v>
+        <v>0.3389021479713604</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,50 +568,50 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>195</v>
+        <v>419</v>
       </c>
       <c r="E10">
-        <v>0.2769230769230769</v>
+        <v>0.2529832935560859</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.20763723150358</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="E12">
-        <v>0.6910569105691057</v>
+        <v>0.1575178997613365</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,66 +619,168 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="D13">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="E13">
-        <v>0.4390243902439024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.3782383419689119</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E15">
-        <v>0.4611650485436893</v>
+        <v>0.3264248704663212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>193</v>
+      </c>
+      <c r="E16">
+        <v>0.2953367875647668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>0.6910569105691057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <v>0.4959349593495935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
+      <c r="C20">
+        <v>206</v>
+      </c>
+      <c r="D20">
+        <v>206</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <v>206</v>
+      </c>
+      <c r="E21">
+        <v>0.5194174757281553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>419</v>
       </c>
       <c r="E12">
-        <v>0.1575178997613365</v>
+        <v>0.1599045346062052</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>123</v>
       </c>
       <c r="E19">
-        <v>0.4959349593495935</v>
+        <v>0.5203252032520326</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21">
         <v>206</v>
       </c>
       <c r="E21">
-        <v>0.5194174757281553</v>
+        <v>0.5242718446601942</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -435,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -452,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.6055045871559633</v>
+        <v>0.5981308411214953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.2477064220183486</v>
+        <v>0.2429906542056075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,13 +486,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.1651376146788991</v>
+        <v>0.1588785046728972</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.1467889908256881</v>
+        <v>0.1401869158878505</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>0.1284403669724771</v>
+        <v>0.102803738317757</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D8">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -554,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E9">
-        <v>0.3389021479713604</v>
+        <v>0.3357314148681055</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -571,13 +571,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E10">
-        <v>0.2529832935560859</v>
+        <v>0.249400479616307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -588,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E11">
-        <v>0.20763723150358</v>
+        <v>0.2038369304556355</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E12">
-        <v>0.1599045346062052</v>
+        <v>0.1510791366906475</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -656,13 +656,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>193</v>
       </c>
       <c r="E15">
-        <v>0.3264248704663212</v>
+        <v>0.3160621761658031</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -673,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>193</v>
       </c>
       <c r="E16">
-        <v>0.2953367875647668</v>
+        <v>0.2746113989637305</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -707,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18">
-        <v>0.6910569105691057</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19">
-        <v>0.5203252032520326</v>
+        <v>0.4758064516129032</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D21">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E21">
-        <v>0.5242718446601942</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>107</v>
       </c>
       <c r="E7">
-        <v>0.102803738317757</v>
+        <v>0.1121495327102804</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -673,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>193</v>
       </c>
       <c r="E16">
-        <v>0.2746113989637305</v>
+        <v>0.2797927461139896</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>204</v>
       </c>
       <c r="E21">
-        <v>0.5098039215686274</v>
+        <v>0.5147058823529411</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>107</v>
       </c>
       <c r="E7">
-        <v>0.1121495327102804</v>
+        <v>0.1214953271028037</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>124</v>
       </c>
       <c r="E19">
-        <v>0.4758064516129032</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>417</v>
       </c>
       <c r="E12">
-        <v>0.1510791366906475</v>
+        <v>0.1534772182254197</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>124</v>
       </c>
       <c r="E19">
-        <v>0.4838709677419355</v>
+        <v>0.4919354838709677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>204</v>
       </c>
       <c r="E21">
-        <v>0.5147058823529411</v>
+        <v>0.5196078431372549</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>204</v>
       </c>
       <c r="E21">
-        <v>0.5196078431372549</v>
+        <v>0.5392156862745098</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -452,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>107</v>
       </c>
       <c r="E3">
-        <v>0.5981308411214953</v>
+        <v>0.6074766355140186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.2429906542056075</v>
+        <v>0.2523364485981308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,13 +486,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.1588785046728972</v>
+        <v>0.1682242990654206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.1401869158878505</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>107</v>
       </c>
       <c r="E7">
-        <v>0.1214953271028037</v>
+        <v>0.1401869158878505</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D8">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -554,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E9">
-        <v>0.3357314148681055</v>
+        <v>0.3389021479713604</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -571,13 +571,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E10">
-        <v>0.249400479616307</v>
+        <v>0.2529832935560859</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -588,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E11">
-        <v>0.2038369304556355</v>
+        <v>0.20763723150358</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E12">
-        <v>0.1534772182254197</v>
+        <v>0.1694510739856802</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -656,13 +656,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>193</v>
       </c>
       <c r="E15">
-        <v>0.3160621761658031</v>
+        <v>0.3264248704663212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -673,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>193</v>
       </c>
       <c r="E16">
-        <v>0.2797927461139896</v>
+        <v>0.3056994818652849</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -707,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18">
-        <v>0.6774193548387096</v>
+        <v>0.6910569105691057</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19">
-        <v>0.4919354838709677</v>
+        <v>0.5284552845528455</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D20">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E21">
-        <v>0.5392156862745098</v>
+        <v>0.5533980582524272</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>419</v>
       </c>
       <c r="E12">
-        <v>0.1694510739856802</v>
+        <v>0.1718377088305489</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>206</v>
       </c>
       <c r="E21">
-        <v>0.5533980582524272</v>
+        <v>0.558252427184466</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -673,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>193</v>
       </c>
       <c r="E16">
-        <v>0.3056994818652849</v>
+        <v>0.310880829015544</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>419</v>
       </c>
       <c r="E12">
-        <v>0.1718377088305489</v>
+        <v>0.1742243436754177</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>123</v>
       </c>
       <c r="E19">
-        <v>0.5284552845528455</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="20" spans="1:5">

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -724,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>123</v>
       </c>
       <c r="E19">
-        <v>0.5365853658536586</v>
+        <v>0.5447154471544715</v>
       </c>
     </row>
     <row r="20" spans="1:5">

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D22">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -673,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>193</v>
       </c>
       <c r="E16">
-        <v>0.310880829015544</v>
+        <v>0.3160621761658031</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D22">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_retencao_anual.xlsx
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D22">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>1</v>
